--- a/sellerflash-otomasyon-linkler/Event & Party Supplies.xlsx
+++ b/sellerflash-otomasyon-linkler/Event & Party Supplies.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nihat/Documents/AmazonIcinGelistirdiklerim/amazon-seller-flash-otomasyonu-url/sellerflash-otomasyon-linkler/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E25C9099-F652-3B4F-991D-D9E8FFC93802}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BE0E692-0EFD-324C-ABEE-F2917640C666}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3500" yWindow="740" windowWidth="25900" windowHeight="16900" xr2:uid="{723A4E8F-9897-514E-8242-E5C73A5825B4}"/>
+    <workbookView xWindow="3500" yWindow="740" windowWidth="25900" windowHeight="16860" xr2:uid="{723A4E8F-9897-514E-8242-E5C73A5825B4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -488,10 +488,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EAF254C-100D-DF40-B9E7-9C397D7EDBAC}">
-  <dimension ref="A1:B106"/>
+  <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -501,7 +501,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="str" cm="1">
-        <f t="array" ref="B1:B106">"'"&amp;A1:A106&amp;"',"</f>
+        <f t="array" ref="B1:B26">"'"&amp;A1:A26&amp;"',"</f>
         <v>'https://www.amazon.com/s?i=garden&amp;bbn=901590&amp;rh=n%3A1055398%2Cn%3A901590%2Cn%3A723481011%2Cp_72%3A1248915011%2Cp_36%3A1500-7700&amp;dc&amp;ds=v1%3Aj4%2BxmyzqYuoCx3Gme77P5ZGt7rVBwIJFPpbW8EAiDhs&amp;qid=1688722033&amp;rnid=901590&amp;ref=sr_nr_n_1',</v>
       </c>
     </row>
@@ -703,406 +703,6 @@
       </c>
       <c r="B26" t="str">
         <v>'https://www.amazon.com/s?i=garden&amp;bbn=901590&amp;rh=n%3A1055398%2Cn%3A901590%2Cn%3A723463011%2Cp_72%3A1248915011%2Cp_36%3A1500-7700&amp;dc&amp;ds=v1%3AFj6PEgnk0vZpKHhXpcr39v6Im8gjs17qFS8GwBGN5eA&amp;qid=1688722033&amp;rnid=901590&amp;ref=sr_nr_n_14',</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B27" t="str">
-        <v>'',</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B28" t="str">
-        <v>'',</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B29" t="str">
-        <v>'',</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B30" t="str">
-        <v>'',</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B31" t="str">
-        <v>'',</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B32" t="str">
-        <v>'',</v>
-      </c>
-    </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B33" t="str">
-        <v>'',</v>
-      </c>
-    </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B34" t="str">
-        <v>'',</v>
-      </c>
-    </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B35" t="str">
-        <v>'',</v>
-      </c>
-    </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B36" t="str">
-        <v>'',</v>
-      </c>
-    </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B37" t="str">
-        <v>'',</v>
-      </c>
-    </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B38" t="str">
-        <v>'',</v>
-      </c>
-    </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B39" t="str">
-        <v>'',</v>
-      </c>
-    </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B40" t="str">
-        <v>'',</v>
-      </c>
-    </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B41" t="str">
-        <v>'',</v>
-      </c>
-    </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B42" t="str">
-        <v>'',</v>
-      </c>
-    </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B43" t="str">
-        <v>'',</v>
-      </c>
-    </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B44" t="str">
-        <v>'',</v>
-      </c>
-    </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B45" t="str">
-        <v>'',</v>
-      </c>
-    </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B46" t="str">
-        <v>'',</v>
-      </c>
-    </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B47" t="str">
-        <v>'',</v>
-      </c>
-    </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B48" t="str">
-        <v>'',</v>
-      </c>
-    </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B49" t="str">
-        <v>'',</v>
-      </c>
-    </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B50" t="str">
-        <v>'',</v>
-      </c>
-    </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B51" t="str">
-        <v>'',</v>
-      </c>
-    </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B52" t="str">
-        <v>'',</v>
-      </c>
-    </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B53" t="str">
-        <v>'',</v>
-      </c>
-    </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B54" t="str">
-        <v>'',</v>
-      </c>
-    </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B55" t="str">
-        <v>'',</v>
-      </c>
-    </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B56" t="str">
-        <v>'',</v>
-      </c>
-    </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B57" t="str">
-        <v>'',</v>
-      </c>
-    </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B58" t="str">
-        <v>'',</v>
-      </c>
-    </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B59" t="str">
-        <v>'',</v>
-      </c>
-    </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B60" t="str">
-        <v>'',</v>
-      </c>
-    </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B61" t="str">
-        <v>'',</v>
-      </c>
-    </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B62" t="str">
-        <v>'',</v>
-      </c>
-    </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B63" t="str">
-        <v>'',</v>
-      </c>
-    </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B64" t="str">
-        <v>'',</v>
-      </c>
-    </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B65" t="str">
-        <v>'',</v>
-      </c>
-    </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B66" t="str">
-        <v>'',</v>
-      </c>
-    </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B67" t="str">
-        <v>'',</v>
-      </c>
-    </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B68" t="str">
-        <v>'',</v>
-      </c>
-    </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B69" t="str">
-        <v>'',</v>
-      </c>
-    </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B70" t="str">
-        <v>'',</v>
-      </c>
-    </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B71" t="str">
-        <v>'',</v>
-      </c>
-    </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B72" t="str">
-        <v>'',</v>
-      </c>
-    </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B73" t="str">
-        <v>'',</v>
-      </c>
-    </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B74" t="str">
-        <v>'',</v>
-      </c>
-    </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B75" t="str">
-        <v>'',</v>
-      </c>
-    </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B76" t="str">
-        <v>'',</v>
-      </c>
-    </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B77" t="str">
-        <v>'',</v>
-      </c>
-    </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B78" t="str">
-        <v>'',</v>
-      </c>
-    </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B79" t="str">
-        <v>'',</v>
-      </c>
-    </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B80" t="str">
-        <v>'',</v>
-      </c>
-    </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B81" t="str">
-        <v>'',</v>
-      </c>
-    </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B82" t="str">
-        <v>'',</v>
-      </c>
-    </row>
-    <row r="83" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B83" t="str">
-        <v>'',</v>
-      </c>
-    </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B84" t="str">
-        <v>'',</v>
-      </c>
-    </row>
-    <row r="85" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B85" t="str">
-        <v>'',</v>
-      </c>
-    </row>
-    <row r="86" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B86" t="str">
-        <v>'',</v>
-      </c>
-    </row>
-    <row r="87" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B87" t="str">
-        <v>'',</v>
-      </c>
-    </row>
-    <row r="88" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B88" t="str">
-        <v>'',</v>
-      </c>
-    </row>
-    <row r="89" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B89" t="str">
-        <v>'',</v>
-      </c>
-    </row>
-    <row r="90" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B90" t="str">
-        <v>'',</v>
-      </c>
-    </row>
-    <row r="91" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B91" t="str">
-        <v>'',</v>
-      </c>
-    </row>
-    <row r="92" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B92" t="str">
-        <v>'',</v>
-      </c>
-    </row>
-    <row r="93" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B93" t="str">
-        <v>'',</v>
-      </c>
-    </row>
-    <row r="94" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B94" t="str">
-        <v>'',</v>
-      </c>
-    </row>
-    <row r="95" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B95" t="str">
-        <v>'',</v>
-      </c>
-    </row>
-    <row r="96" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B96" t="str">
-        <v>'',</v>
-      </c>
-    </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B97" t="str">
-        <v>'',</v>
-      </c>
-    </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B98" t="str">
-        <v>'',</v>
-      </c>
-    </row>
-    <row r="99" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B99" t="str">
-        <v>'',</v>
-      </c>
-    </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B100" t="str">
-        <v>'',</v>
-      </c>
-    </row>
-    <row r="101" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B101" t="str">
-        <v>'',</v>
-      </c>
-    </row>
-    <row r="102" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B102" t="str">
-        <v>'',</v>
-      </c>
-    </row>
-    <row r="103" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B103" t="str">
-        <v>'',</v>
-      </c>
-    </row>
-    <row r="104" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B104" t="str">
-        <v>'',</v>
-      </c>
-    </row>
-    <row r="105" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B105" t="str">
-        <v>'',</v>
-      </c>
-    </row>
-    <row r="106" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B106" t="str">
-        <v>'',</v>
       </c>
     </row>
   </sheetData>
